--- a/natmiOut/OldD4/LR-pairs_lrc2p/Spon2-Itgb1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Spon2-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.958603627790573</v>
+        <v>1.166127333333333</v>
       </c>
       <c r="H2">
-        <v>0.958603627790573</v>
+        <v>3.498382</v>
       </c>
       <c r="I2">
-        <v>0.1588742452219218</v>
+        <v>0.1795592107679211</v>
       </c>
       <c r="J2">
-        <v>0.1588742452219218</v>
+        <v>0.1849469123397136</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N2">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O2">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P2">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q2">
-        <v>118.6206113571504</v>
+        <v>161.1810533955324</v>
       </c>
       <c r="R2">
-        <v>118.6206113571504</v>
+        <v>1450.629480559792</v>
       </c>
       <c r="S2">
-        <v>0.03355784134834108</v>
+        <v>0.04038688237552308</v>
       </c>
       <c r="T2">
-        <v>0.03355784134834108</v>
+        <v>0.04580393388397195</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.958603627790573</v>
+        <v>1.166127333333333</v>
       </c>
       <c r="H3">
-        <v>0.958603627790573</v>
+        <v>3.498382</v>
       </c>
       <c r="I3">
-        <v>0.1588742452219218</v>
+        <v>0.1795592107679211</v>
       </c>
       <c r="J3">
-        <v>0.1588742452219218</v>
+        <v>0.1849469123397136</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N3">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P3">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q3">
-        <v>132.8511704977449</v>
+        <v>172.4869432046866</v>
       </c>
       <c r="R3">
-        <v>132.8511704977449</v>
+        <v>1552.38248884218</v>
       </c>
       <c r="S3">
-        <v>0.03758367497434075</v>
+        <v>0.04321978135622669</v>
       </c>
       <c r="T3">
-        <v>0.03758367497434075</v>
+        <v>0.04901680672732765</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.958603627790573</v>
+        <v>1.166127333333333</v>
       </c>
       <c r="H4">
-        <v>0.958603627790573</v>
+        <v>3.498382</v>
       </c>
       <c r="I4">
-        <v>0.1588742452219218</v>
+        <v>0.1795592107679211</v>
       </c>
       <c r="J4">
-        <v>0.1588742452219218</v>
+        <v>0.1849469123397136</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N4">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O4">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P4">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q4">
-        <v>68.34833492349706</v>
+        <v>86.61132919060711</v>
       </c>
       <c r="R4">
-        <v>68.34833492349706</v>
+        <v>779.5019627154639</v>
       </c>
       <c r="S4">
-        <v>0.0193357845111775</v>
+        <v>0.0217020641739131</v>
       </c>
       <c r="T4">
-        <v>0.0193357845111775</v>
+        <v>0.02461293999682631</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.958603627790573</v>
+        <v>1.166127333333333</v>
       </c>
       <c r="H5">
-        <v>0.958603627790573</v>
+        <v>3.498382</v>
       </c>
       <c r="I5">
-        <v>0.1588742452219218</v>
+        <v>0.1795592107679211</v>
       </c>
       <c r="J5">
-        <v>0.1588742452219218</v>
+        <v>0.1849469123397136</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N5">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O5">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P5">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q5">
-        <v>81.3152988737548</v>
+        <v>98.95401309410023</v>
       </c>
       <c r="R5">
-        <v>81.3152988737548</v>
+        <v>890.5861178469021</v>
       </c>
       <c r="S5">
-        <v>0.02300414630795032</v>
+        <v>0.02479475101586704</v>
       </c>
       <c r="T5">
-        <v>0.02300414630795032</v>
+        <v>0.02812044578337202</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.958603627790573</v>
+        <v>1.166127333333333</v>
       </c>
       <c r="H6">
-        <v>0.958603627790573</v>
+        <v>3.498382</v>
       </c>
       <c r="I6">
-        <v>0.1588742452219218</v>
+        <v>0.1795592107679211</v>
       </c>
       <c r="J6">
-        <v>0.1588742452219218</v>
+        <v>0.1849469123397136</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N6">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O6">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P6">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q6">
-        <v>160.4549411740029</v>
+        <v>197.374159295827</v>
       </c>
       <c r="R6">
-        <v>160.4549411740029</v>
+        <v>1184.244955774962</v>
       </c>
       <c r="S6">
-        <v>0.04539279808011217</v>
+        <v>0.04945573184639124</v>
       </c>
       <c r="T6">
-        <v>0.04539279808011217</v>
+        <v>0.03739278594821571</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.51785709451082</v>
+        <v>4.616901666666666</v>
       </c>
       <c r="H7">
-        <v>4.51785709451082</v>
+        <v>13.850705</v>
       </c>
       <c r="I7">
-        <v>0.7487673894634199</v>
+        <v>0.7109062584872947</v>
       </c>
       <c r="J7">
-        <v>0.7487673894634199</v>
+        <v>0.7322371094632414</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N7">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O7">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P7">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q7">
-        <v>559.0537684593382</v>
+        <v>638.1439254406089</v>
       </c>
       <c r="R7">
-        <v>559.0537684593382</v>
+        <v>5743.29532896548</v>
       </c>
       <c r="S7">
-        <v>0.1581566428676124</v>
+        <v>0.1598987170792296</v>
       </c>
       <c r="T7">
-        <v>0.1581566428676124</v>
+        <v>0.1813457695775932</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.51785709451082</v>
+        <v>4.616901666666666</v>
       </c>
       <c r="H8">
-        <v>4.51785709451082</v>
+        <v>13.850705</v>
       </c>
       <c r="I8">
-        <v>0.7487673894634199</v>
+        <v>0.7109062584872947</v>
       </c>
       <c r="J8">
-        <v>0.7487673894634199</v>
+        <v>0.7322371094632414</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N8">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P8">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q8">
-        <v>626.1217731156241</v>
+        <v>682.9059167008832</v>
       </c>
       <c r="R8">
-        <v>626.1217731156241</v>
+        <v>6146.15325030795</v>
       </c>
       <c r="S8">
-        <v>0.1771302211863838</v>
+        <v>0.1711146586420796</v>
       </c>
       <c r="T8">
-        <v>0.1771302211863838</v>
+        <v>0.1940660939892301</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.51785709451082</v>
+        <v>4.616901666666666</v>
       </c>
       <c r="H9">
-        <v>4.51785709451082</v>
+        <v>13.850705</v>
       </c>
       <c r="I9">
-        <v>0.7487673894634199</v>
+        <v>0.7109062584872947</v>
       </c>
       <c r="J9">
-        <v>0.7487673894634199</v>
+        <v>0.7322371094632414</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N9">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O9">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P9">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q9">
-        <v>322.122721926089</v>
+        <v>342.9093707539622</v>
       </c>
       <c r="R9">
-        <v>322.122721926089</v>
+        <v>3086.18433678566</v>
       </c>
       <c r="S9">
-        <v>0.09112870919662376</v>
+        <v>0.08592226028030643</v>
       </c>
       <c r="T9">
-        <v>0.09112870919662376</v>
+        <v>0.09744692577275497</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.51785709451082</v>
+        <v>4.616901666666666</v>
       </c>
       <c r="H10">
-        <v>4.51785709451082</v>
+        <v>13.850705</v>
       </c>
       <c r="I10">
-        <v>0.7487673894634199</v>
+        <v>0.7109062584872947</v>
       </c>
       <c r="J10">
-        <v>0.7487673894634199</v>
+        <v>0.7322371094632414</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N10">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O10">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P10">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q10">
-        <v>383.2354575538083</v>
+        <v>391.7762108118895</v>
       </c>
       <c r="R10">
-        <v>383.2354575538083</v>
+        <v>3525.985897307005</v>
       </c>
       <c r="S10">
-        <v>0.1084175383730592</v>
+        <v>0.09816674733325997</v>
       </c>
       <c r="T10">
-        <v>0.1084175383730592</v>
+        <v>0.1113337534362971</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.51785709451082</v>
+        <v>4.616901666666666</v>
       </c>
       <c r="H11">
-        <v>4.51785709451082</v>
+        <v>13.850705</v>
       </c>
       <c r="I11">
-        <v>0.7487673894634199</v>
+        <v>0.7109062584872947</v>
       </c>
       <c r="J11">
-        <v>0.7487673894634199</v>
+        <v>0.7322371094632414</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N11">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O11">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P11">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q11">
-        <v>756.2171405537988</v>
+        <v>781.4387494074425</v>
       </c>
       <c r="R11">
-        <v>756.2171405537988</v>
+        <v>4688.632496444655</v>
       </c>
       <c r="S11">
-        <v>0.2139342778397408</v>
+        <v>0.1958038751524191</v>
       </c>
       <c r="T11">
-        <v>0.2139342778397408</v>
+        <v>0.1480445666873661</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.557265048993744</v>
+        <v>0.1437943333333333</v>
       </c>
       <c r="H12">
-        <v>0.557265048993744</v>
+        <v>0.431383</v>
       </c>
       <c r="I12">
-        <v>0.09235836531465817</v>
+        <v>0.02214131876355931</v>
       </c>
       <c r="J12">
-        <v>0.09235836531465817</v>
+        <v>0.02280567241823296</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N12">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O12">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P12">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q12">
-        <v>68.95772025395661</v>
+        <v>19.87512122944978</v>
       </c>
       <c r="R12">
-        <v>68.95772025395661</v>
+        <v>178.876091065048</v>
       </c>
       <c r="S12">
-        <v>0.01950817998280423</v>
+        <v>0.004980077784473015</v>
       </c>
       <c r="T12">
-        <v>0.01950817998280423</v>
+        <v>0.005648050558992548</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.557265048993744</v>
+        <v>0.1437943333333333</v>
       </c>
       <c r="H13">
-        <v>0.557265048993744</v>
+        <v>0.431383</v>
       </c>
       <c r="I13">
-        <v>0.09235836531465817</v>
+        <v>0.02214131876355931</v>
       </c>
       <c r="J13">
-        <v>0.09235836531465817</v>
+        <v>0.02280567241823296</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N13">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P13">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q13">
-        <v>77.23037122959457</v>
+        <v>21.26924247279666</v>
       </c>
       <c r="R13">
-        <v>77.23037122959457</v>
+        <v>191.42318225517</v>
       </c>
       <c r="S13">
-        <v>0.02184851785321703</v>
+        <v>0.005329400545964717</v>
       </c>
       <c r="T13">
-        <v>0.02184851785321703</v>
+        <v>0.006044227627644659</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.557265048993744</v>
+        <v>0.1437943333333333</v>
       </c>
       <c r="H14">
-        <v>0.557265048993744</v>
+        <v>0.431383</v>
       </c>
       <c r="I14">
-        <v>0.09235836531465817</v>
+        <v>0.02214131876355931</v>
       </c>
       <c r="J14">
-        <v>0.09235836531465817</v>
+        <v>0.02280567241823296</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N14">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O14">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P14">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q14">
-        <v>39.73293768725917</v>
+        <v>10.67998149436844</v>
       </c>
       <c r="R14">
-        <v>39.73293768725917</v>
+        <v>96.11983344931599</v>
       </c>
       <c r="S14">
-        <v>0.01124047165123796</v>
+        <v>0.002676066121291258</v>
       </c>
       <c r="T14">
-        <v>0.01124047165123796</v>
+        <v>0.00303500415181959</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.557265048993744</v>
+        <v>0.1437943333333333</v>
       </c>
       <c r="H15">
-        <v>0.557265048993744</v>
+        <v>0.431383</v>
       </c>
       <c r="I15">
-        <v>0.09235836531465817</v>
+        <v>0.02214131876355931</v>
       </c>
       <c r="J15">
-        <v>0.09235836531465817</v>
+        <v>0.02280567241823296</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N15">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O15">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P15">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q15">
-        <v>47.27102286819608</v>
+        <v>12.20194908119589</v>
       </c>
       <c r="R15">
-        <v>47.27102286819608</v>
+        <v>109.817541730763</v>
       </c>
       <c r="S15">
-        <v>0.01337300042240176</v>
+        <v>0.003057423139462121</v>
       </c>
       <c r="T15">
-        <v>0.01337300042240176</v>
+        <v>0.00346751219945917</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1437943333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.431383</v>
+      </c>
+      <c r="I16">
+        <v>0.02214131876355931</v>
+      </c>
+      <c r="J16">
+        <v>0.02280567241823296</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>169.2560955</v>
+      </c>
+      <c r="N16">
+        <v>338.512191</v>
+      </c>
+      <c r="O16">
+        <v>0.275428543235871</v>
+      </c>
+      <c r="P16">
+        <v>0.2021811852664618</v>
+      </c>
+      <c r="Q16">
+        <v>24.3380674150255</v>
+      </c>
+      <c r="R16">
+        <v>146.028404490153</v>
+      </c>
+      <c r="S16">
+        <v>0.006098351172368196</v>
+      </c>
+      <c r="T16">
+        <v>0.004610877880316997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.5675655000000001</v>
+      </c>
+      <c r="H17">
+        <v>1.135131</v>
+      </c>
+      <c r="I17">
+        <v>0.08739321198122495</v>
+      </c>
+      <c r="J17">
+        <v>0.06001030577881189</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>138.2190853333333</v>
+      </c>
+      <c r="N17">
+        <v>414.657256</v>
+      </c>
+      <c r="O17">
+        <v>0.2249223651785973</v>
+      </c>
+      <c r="P17">
+        <v>0.2476599003709697</v>
+      </c>
+      <c r="Q17">
+        <v>78.44838427675602</v>
+      </c>
+      <c r="R17">
+        <v>470.6903056605361</v>
+      </c>
+      <c r="S17">
+        <v>0.01965668793937165</v>
+      </c>
+      <c r="T17">
+        <v>0.01486214635041198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.5675655000000001</v>
+      </c>
+      <c r="H18">
+        <v>1.135131</v>
+      </c>
+      <c r="I18">
+        <v>0.08739321198122495</v>
+      </c>
+      <c r="J18">
+        <v>0.06001030577881189</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>147.91433</v>
+      </c>
+      <c r="N18">
+        <v>443.74299</v>
+      </c>
+      <c r="O18">
+        <v>0.2406993279341593</v>
+      </c>
+      <c r="P18">
+        <v>0.2650317656414439</v>
+      </c>
+      <c r="Q18">
+        <v>83.951070663615</v>
+      </c>
+      <c r="R18">
+        <v>503.70642398169</v>
+      </c>
+      <c r="S18">
+        <v>0.02103548738988837</v>
+      </c>
+      <c r="T18">
+        <v>0.01590463729724146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.5675655000000001</v>
+      </c>
+      <c r="H19">
+        <v>1.135131</v>
+      </c>
+      <c r="I19">
+        <v>0.08739321198122495</v>
+      </c>
+      <c r="J19">
+        <v>0.06001030577881189</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>74.27261733333333</v>
+      </c>
+      <c r="N19">
+        <v>222.817852</v>
+      </c>
+      <c r="O19">
+        <v>0.1208629960061633</v>
+      </c>
+      <c r="P19">
+        <v>0.1330811078998542</v>
+      </c>
+      <c r="Q19">
+        <v>42.154575193102</v>
+      </c>
+      <c r="R19">
+        <v>252.927451158612</v>
+      </c>
+      <c r="S19">
+        <v>0.01056260543065258</v>
+      </c>
+      <c r="T19">
+        <v>0.007986237978453308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.557265048993744</v>
-      </c>
-      <c r="H16">
-        <v>0.557265048993744</v>
-      </c>
-      <c r="I16">
-        <v>0.09235836531465817</v>
-      </c>
-      <c r="J16">
-        <v>0.09235836531465817</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>167.384032901926</v>
-      </c>
-      <c r="N16">
-        <v>167.384032901926</v>
-      </c>
-      <c r="O16">
-        <v>0.2857152713248502</v>
-      </c>
-      <c r="P16">
-        <v>0.2857152713248502</v>
-      </c>
-      <c r="Q16">
-        <v>93.27727129586223</v>
-      </c>
-      <c r="R16">
-        <v>93.27727129586223</v>
-      </c>
-      <c r="S16">
-        <v>0.02638819540499719</v>
-      </c>
-      <c r="T16">
-        <v>0.02638819540499719</v>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.5675655000000001</v>
+      </c>
+      <c r="H20">
+        <v>1.135131</v>
+      </c>
+      <c r="I20">
+        <v>0.08739321198122495</v>
+      </c>
+      <c r="J20">
+        <v>0.06001030577881189</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>84.85695366666668</v>
+      </c>
+      <c r="N20">
+        <v>254.570861</v>
+      </c>
+      <c r="O20">
+        <v>0.138086767645209</v>
+      </c>
+      <c r="P20">
+        <v>0.1520460408212704</v>
+      </c>
+      <c r="Q20">
+        <v>48.16187933629851</v>
+      </c>
+      <c r="R20">
+        <v>288.9712760177911</v>
+      </c>
+      <c r="S20">
+        <v>0.01206784615661991</v>
+      </c>
+      <c r="T20">
+        <v>0.009124329402142153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.5675655000000001</v>
+      </c>
+      <c r="H21">
+        <v>1.135131</v>
+      </c>
+      <c r="I21">
+        <v>0.08739321198122495</v>
+      </c>
+      <c r="J21">
+        <v>0.06001030577881189</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>169.2560955</v>
+      </c>
+      <c r="N21">
+        <v>338.512191</v>
+      </c>
+      <c r="O21">
+        <v>0.275428543235871</v>
+      </c>
+      <c r="P21">
+        <v>0.2021811852664618</v>
+      </c>
+      <c r="Q21">
+        <v>96.06392047050527</v>
+      </c>
+      <c r="R21">
+        <v>384.2556818820211</v>
+      </c>
+      <c r="S21">
+        <v>0.02407058506469245</v>
+      </c>
+      <c r="T21">
+        <v>0.01213295475056299</v>
       </c>
     </row>
   </sheetData>
